--- a/PCR/Calcul_PCR_INSPQ.xlsx
+++ b/PCR/Calcul_PCR_INSPQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IngridPeignier/Dropbox/EnqueteCOVID/PCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559B119-285C-1E41-B7F3-CC84DF57E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F90783-297D-7640-B7BE-35897EB18E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" firstSheet="10" activeTab="16" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" firstSheet="10" activeTab="17" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="sem 15" sheetId="19" r:id="rId15"/>
     <sheet name="sem 16" sheetId="21" r:id="rId16"/>
     <sheet name="sem 17" sheetId="22" r:id="rId17"/>
+    <sheet name="sem 18" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="65">
   <si>
     <t>Calcul du nombre d'hospitalisation 7 derniers jour selon la date d'entrevue</t>
   </si>
@@ -242,6 +243,9 @@
   </si>
   <si>
     <t>Source : https://www.inspq.qc.ca/covid-19/donnees extrait le 4 mai2022</t>
+  </si>
+  <si>
+    <t>Source : https://www.inspq.qc.ca/covid-19/donnees extrait le 18 mai2022</t>
   </si>
 </sst>
 </file>
@@ -699,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -885,6 +889,9 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,10 +1682,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="85"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="17" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1708,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="87" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="20" t="s">
@@ -1729,7 +1736,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="88"/>
       <c r="I20" s="24" t="s">
         <v>15</v>
       </c>
@@ -1755,7 +1762,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="H21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="24" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1788,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="H22" s="87"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="24" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1814,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="87"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="24" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +1840,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="24" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1866,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="H25" s="87"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="40" t="s">
         <v>20</v>
       </c>
@@ -1907,10 +1914,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="89"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="28">
         <v>13161750.000000056</v>
       </c>
@@ -3554,10 +3561,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -3584,7 +3591,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -3617,7 +3624,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23">
         <v>18</v>
       </c>
@@ -3649,7 +3656,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24">
         <v>19</v>
       </c>
@@ -3680,7 +3687,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25">
         <v>20</v>
       </c>
@@ -3711,7 +3718,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="92"/>
       <c r="M26">
         <v>21</v>
       </c>
@@ -3742,7 +3749,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27">
         <v>22</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="93"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -4433,10 +4440,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="97"/>
+      <c r="M21" s="98"/>
       <c r="N21" s="54" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4471,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="99" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -4498,7 +4505,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="99"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="57">
         <v>25</v>
       </c>
@@ -4531,7 +4538,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="99"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="57">
         <v>26</v>
       </c>
@@ -4563,7 +4570,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="57">
         <v>27</v>
       </c>
@@ -4595,7 +4602,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="99"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="57">
         <v>28</v>
       </c>
@@ -4627,7 +4634,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="99"/>
+      <c r="L27" s="100"/>
       <c r="M27" s="57">
         <v>29</v>
       </c>
@@ -4659,7 +4666,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="100"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="57" t="s">
         <v>20</v>
       </c>
@@ -5196,10 +5203,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="97"/>
+      <c r="M21" s="98"/>
       <c r="N21" s="54" t="s">
         <v>9</v>
       </c>
@@ -5226,7 +5233,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="99" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -5259,7 +5266,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="99"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="57">
         <v>1</v>
       </c>
@@ -5291,7 +5298,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="99"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="57">
         <v>2</v>
       </c>
@@ -5322,7 +5329,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="57">
         <v>3</v>
       </c>
@@ -5353,7 +5360,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="99"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="57">
         <v>4</v>
       </c>
@@ -5384,7 +5391,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="99"/>
+      <c r="L27" s="100"/>
       <c r="M27" s="57">
         <v>5</v>
       </c>
@@ -5415,7 +5422,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="100"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="57" t="s">
         <v>20</v>
       </c>
@@ -5951,10 +5958,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="75" t="s">
         <v>9</v>
       </c>
@@ -5981,7 +5988,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="102" t="s">
+      <c r="L22" s="103" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="73">
@@ -6014,7 +6021,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="73">
         <v>8</v>
       </c>
@@ -6046,7 +6053,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="73">
         <v>9</v>
       </c>
@@ -6077,7 +6084,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="73">
         <v>10</v>
       </c>
@@ -6107,7 +6114,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="73">
         <v>11</v>
       </c>
@@ -6137,7 +6144,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="73">
         <v>12</v>
       </c>
@@ -6167,7 +6174,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="74" t="s">
         <v>20</v>
       </c>
@@ -6700,10 +6707,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="75" t="s">
         <v>9</v>
       </c>
@@ -6730,7 +6737,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="102" t="s">
+      <c r="L22" s="103" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -6763,7 +6770,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="57">
         <v>15</v>
       </c>
@@ -6795,7 +6802,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="57">
         <v>16</v>
       </c>
@@ -6826,7 +6833,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="57">
         <v>17</v>
       </c>
@@ -6856,7 +6863,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="57">
         <v>18</v>
       </c>
@@ -6886,7 +6893,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="57">
         <v>19</v>
       </c>
@@ -6916,7 +6923,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="74" t="s">
         <v>20</v>
       </c>
@@ -7449,10 +7456,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="75" t="s">
         <v>9</v>
       </c>
@@ -7479,7 +7486,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="102" t="s">
+      <c r="L22" s="103" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -7512,7 +7519,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="57">
         <v>22</v>
       </c>
@@ -7544,7 +7551,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="57">
         <v>23</v>
       </c>
@@ -7575,7 +7582,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="57">
         <v>24</v>
       </c>
@@ -7605,7 +7612,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="57">
         <v>25</v>
       </c>
@@ -7635,7 +7642,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="57">
         <v>26</v>
       </c>
@@ -7665,7 +7672,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="57" t="s">
         <v>20</v>
       </c>
@@ -8195,10 +8202,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="75" t="s">
         <v>9</v>
       </c>
@@ -8225,7 +8232,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="102" t="s">
+      <c r="L22" s="103" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -8258,7 +8265,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="57">
         <v>29</v>
       </c>
@@ -8290,7 +8297,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="57">
         <v>30</v>
       </c>
@@ -8321,7 +8328,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="57">
         <v>1</v>
       </c>
@@ -8351,7 +8358,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="57">
         <v>2</v>
       </c>
@@ -8381,7 +8388,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="57">
         <v>3</v>
       </c>
@@ -8411,7 +8418,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="57" t="s">
         <v>20</v>
       </c>
@@ -8533,7 +8540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D00F3-3641-CF46-A7B0-7F0B21DB4088}">
   <dimension ref="A3:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -8936,10 +8943,10 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="75" t="s">
         <v>9</v>
       </c>
@@ -8965,7 +8972,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
-      <c r="L22" s="104" t="s">
+      <c r="L22" s="105" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="57">
@@ -8997,7 +9004,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="57">
         <v>6</v>
       </c>
@@ -9028,7 +9035,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="57">
         <v>7</v>
       </c>
@@ -9058,7 +9065,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="57">
         <v>8</v>
       </c>
@@ -9087,7 +9094,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="57">
         <v>9</v>
       </c>
@@ -9116,7 +9123,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="57">
         <v>10</v>
       </c>
@@ -9145,7 +9152,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="57" t="s">
         <v>20</v>
       </c>
@@ -9208,6 +9215,737 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="66" t="s">
         <v>63</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69BAD4D-07BD-DD40-89D4-6A3BB1B89F49}">
+  <dimension ref="A3:S48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11" style="57"/>
+    <col min="4" max="4" width="13.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="11" style="57"/>
+    <col min="15" max="16" width="12.6640625" style="57" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="57" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
+        <v>12</v>
+      </c>
+      <c r="B5" s="58">
+        <f>P22/100</f>
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="C5" s="57">
+        <f>SUM(E5:K5)</f>
+        <v>6052</v>
+      </c>
+      <c r="D5" s="57">
+        <f>B5*C5</f>
+        <v>1125.6720000000003</v>
+      </c>
+      <c r="E5" s="59">
+        <f t="shared" ref="E5:E10" si="0">B20</f>
+        <v>1047</v>
+      </c>
+      <c r="F5" s="59">
+        <f t="shared" ref="F5:F10" si="1">B21</f>
+        <v>665</v>
+      </c>
+      <c r="G5" s="59">
+        <f t="shared" ref="G5:G10" si="2">B22</f>
+        <v>671</v>
+      </c>
+      <c r="H5" s="59">
+        <f t="shared" ref="H5:H10" si="3">B23</f>
+        <v>880</v>
+      </c>
+      <c r="I5" s="59">
+        <f t="shared" ref="I5:I10" si="4">B24</f>
+        <v>1021</v>
+      </c>
+      <c r="J5" s="60">
+        <f t="shared" ref="J5:J10" si="5">B25</f>
+        <v>968</v>
+      </c>
+      <c r="K5" s="60">
+        <f t="shared" ref="K5:K10" si="6">B26</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="57">
+        <v>13</v>
+      </c>
+      <c r="B6" s="58">
+        <f t="shared" ref="B6:B10" si="7">P23/100</f>
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="C6" s="57">
+        <f t="shared" ref="C6:C10" si="8">SUM(E6:K6)</f>
+        <v>5775</v>
+      </c>
+      <c r="D6" s="57">
+        <f t="shared" ref="D6:D10" si="9">B6*C6</f>
+        <v>1166.55</v>
+      </c>
+      <c r="E6" s="59">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" si="1"/>
+        <v>671</v>
+      </c>
+      <c r="G6" s="59">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="H6" s="59">
+        <f t="shared" si="3"/>
+        <v>1021</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="4"/>
+        <v>968</v>
+      </c>
+      <c r="J6" s="60">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="K6" s="60">
+        <f t="shared" si="6"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>14</v>
+      </c>
+      <c r="B7" s="58">
+        <f t="shared" si="7"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C7" s="57">
+        <f t="shared" si="8"/>
+        <v>5672</v>
+      </c>
+      <c r="D7" s="57">
+        <f t="shared" si="9"/>
+        <v>1015.288</v>
+      </c>
+      <c r="E7" s="59">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="F7" s="59">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="G7" s="59">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="H7" s="60">
+        <f t="shared" si="3"/>
+        <v>968</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" si="5"/>
+        <v>770</v>
+      </c>
+      <c r="K7" s="60">
+        <f t="shared" si="6"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="57">
+        <v>15</v>
+      </c>
+      <c r="B8" s="58">
+        <f t="shared" si="7"/>
+        <v>0.185</v>
+      </c>
+      <c r="C8" s="57">
+        <f t="shared" si="8"/>
+        <v>5511</v>
+      </c>
+      <c r="D8" s="57">
+        <f t="shared" si="9"/>
+        <v>1019.535</v>
+      </c>
+      <c r="E8" s="59">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="2"/>
+        <v>968</v>
+      </c>
+      <c r="H8" s="60">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="J8" s="60">
+        <f t="shared" si="5"/>
+        <v>562</v>
+      </c>
+      <c r="K8" s="60">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="57">
+        <v>16</v>
+      </c>
+      <c r="B9" s="58">
+        <f t="shared" si="7"/>
+        <v>0.185</v>
+      </c>
+      <c r="C9" s="57">
+        <f t="shared" si="8"/>
+        <v>5312</v>
+      </c>
+      <c r="D9" s="57">
+        <f t="shared" si="9"/>
+        <v>982.72</v>
+      </c>
+      <c r="E9" s="59">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="1"/>
+        <v>968</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="H9" s="60">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="4"/>
+        <v>562</v>
+      </c>
+      <c r="J9" s="60">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="K9" s="60">
+        <f t="shared" si="6"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="57">
+        <v>17</v>
+      </c>
+      <c r="B10" s="58">
+        <f t="shared" si="7"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C10" s="57">
+        <f t="shared" si="8"/>
+        <v>4685</v>
+      </c>
+      <c r="D10" s="57">
+        <f t="shared" si="9"/>
+        <v>299.84000000000003</v>
+      </c>
+      <c r="E10" s="60">
+        <f t="shared" si="0"/>
+        <v>968</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="G10" s="60">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="H10" s="60">
+        <f t="shared" si="3"/>
+        <v>562</v>
+      </c>
+      <c r="I10" s="60">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="J10" s="60">
+        <f t="shared" si="5"/>
+        <v>681</v>
+      </c>
+      <c r="K10" s="60">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="61">
+        <f>SUM(D5:D10)</f>
+        <v>5609.6050000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="62">
+        <f>D11/7</f>
+        <v>801.37214285714288</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="57">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>947</v>
+      </c>
+      <c r="C14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="57">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>885</v>
+      </c>
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1345</v>
+      </c>
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="57">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1553</v>
+      </c>
+      <c r="C17" s="63"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="57">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1269</v>
+      </c>
+      <c r="C18" s="63"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="57">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1171</v>
+      </c>
+      <c r="C19" s="63"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="57">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <v>665</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="102"/>
+      <c r="N21" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="57">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>671</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="L22" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="57">
+        <v>12</v>
+      </c>
+      <c r="N22" s="57">
+        <v>1220963</v>
+      </c>
+      <c r="O22" s="57">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P22" s="57">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q22" s="57">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S22" s="64"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="57">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <v>880</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="57">
+        <v>13</v>
+      </c>
+      <c r="N23" s="57">
+        <v>1330572</v>
+      </c>
+      <c r="O23" s="57">
+        <v>20.2</v>
+      </c>
+      <c r="P23" s="57">
+        <v>20.2</v>
+      </c>
+      <c r="Q23" s="57">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="S23" s="64"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="57">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="57">
+        <v>14</v>
+      </c>
+      <c r="N24" s="57">
+        <v>1177310</v>
+      </c>
+      <c r="O24" s="57">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P24" s="57">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Q24" s="57">
+        <v>56.7</v>
+      </c>
+      <c r="S24" s="64"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="57">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5">
+        <v>968</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="57">
+        <v>15</v>
+      </c>
+      <c r="N25" s="57">
+        <v>1216664</v>
+      </c>
+      <c r="O25" s="57">
+        <v>18.5</v>
+      </c>
+      <c r="P25" s="57">
+        <v>18.5</v>
+      </c>
+      <c r="Q25" s="57">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="S25" s="64"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="57">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5">
+        <v>800</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="57">
+        <v>16</v>
+      </c>
+      <c r="N26" s="57">
+        <v>1217163</v>
+      </c>
+      <c r="O26" s="57">
+        <v>18.5</v>
+      </c>
+      <c r="P26" s="57">
+        <v>18.5</v>
+      </c>
+      <c r="Q26" s="57">
+        <v>93.6</v>
+      </c>
+      <c r="S26" s="64"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="57">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5">
+        <v>770</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="57">
+        <v>17</v>
+      </c>
+      <c r="N27" s="57">
+        <v>418203</v>
+      </c>
+      <c r="O27" s="57">
+        <v>6.4</v>
+      </c>
+      <c r="P27" s="57">
+        <v>6.4</v>
+      </c>
+      <c r="Q27" s="57">
+        <v>100</v>
+      </c>
+      <c r="S27" s="64"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="57">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5">
+        <v>562</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="57">
+        <f>SUM(N22:N27)</f>
+        <v>6580875</v>
+      </c>
+      <c r="O28" s="57">
+        <f t="shared" ref="O28:P28" si="10">SUM(O22:O27)</f>
+        <v>100.1</v>
+      </c>
+      <c r="P28" s="57">
+        <f t="shared" si="10"/>
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="57">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5">
+        <v>510</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="57">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5">
+        <v>681</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="57">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="66" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -9672,10 +10410,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -9702,7 +10440,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="87" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="20" t="s">
@@ -9735,7 +10473,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="87"/>
+      <c r="L23" s="88"/>
       <c r="M23" s="24" t="s">
         <v>47</v>
       </c>
@@ -9766,7 +10504,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="87"/>
+      <c r="L24" s="88"/>
       <c r="M24" s="24" t="s">
         <v>48</v>
       </c>
@@ -9797,7 +10535,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="88"/>
       <c r="M25" s="24" t="s">
         <v>49</v>
       </c>
@@ -9828,7 +10566,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="87"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="24" t="s">
         <v>50</v>
       </c>
@@ -9859,7 +10597,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="87"/>
+      <c r="L27" s="88"/>
       <c r="M27" s="24" t="s">
         <v>51</v>
       </c>
@@ -9890,7 +10628,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="88"/>
+      <c r="L28" s="89"/>
       <c r="M28" s="72" t="s">
         <v>20</v>
       </c>
@@ -10364,10 +11102,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -10394,7 +11132,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="87" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -10427,7 +11165,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="87"/>
+      <c r="L23" s="88"/>
       <c r="M23">
         <v>28</v>
       </c>
@@ -10458,7 +11196,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="87"/>
+      <c r="L24" s="88"/>
       <c r="M24">
         <v>29</v>
       </c>
@@ -10489,7 +11227,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="88"/>
       <c r="M25">
         <v>30</v>
       </c>
@@ -10520,7 +11258,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="87"/>
+      <c r="L26" s="88"/>
       <c r="M26">
         <v>31</v>
       </c>
@@ -10551,7 +11289,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="87"/>
+      <c r="L27" s="88"/>
       <c r="M27">
         <v>1</v>
       </c>
@@ -10582,7 +11320,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="88"/>
+      <c r="L28" s="89"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -11162,10 +11900,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -11192,7 +11930,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="87" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -11225,7 +11963,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="87"/>
+      <c r="L23" s="88"/>
       <c r="M23">
         <v>4</v>
       </c>
@@ -11257,7 +11995,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="87"/>
+      <c r="L24" s="88"/>
       <c r="M24">
         <v>5</v>
       </c>
@@ -11288,7 +12026,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="88"/>
       <c r="M25">
         <v>6</v>
       </c>
@@ -11319,7 +12057,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="87"/>
+      <c r="L26" s="88"/>
       <c r="M26">
         <v>7</v>
       </c>
@@ -11350,7 +12088,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="87"/>
+      <c r="L27" s="88"/>
       <c r="M27">
         <v>8</v>
       </c>
@@ -11381,7 +12119,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="88"/>
+      <c r="L28" s="89"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -11965,10 +12703,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -11995,7 +12733,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -12028,7 +12766,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23">
         <v>11</v>
       </c>
@@ -12060,7 +12798,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24">
         <v>12</v>
       </c>
@@ -12091,7 +12829,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25">
         <v>13</v>
       </c>
@@ -12122,7 +12860,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="92"/>
       <c r="M26">
         <v>14</v>
       </c>
@@ -12153,7 +12891,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27">
         <v>15</v>
       </c>
@@ -12184,7 +12922,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="93"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -12768,10 +13506,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -12798,7 +13536,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -12831,7 +13569,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23">
         <v>18</v>
       </c>
@@ -12863,7 +13601,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24">
         <v>19</v>
       </c>
@@ -12894,7 +13632,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25">
         <v>20</v>
       </c>
@@ -12925,7 +13663,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="92"/>
       <c r="M26">
         <v>21</v>
       </c>
@@ -12956,7 +13694,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27">
         <v>22</v>
       </c>
@@ -12987,7 +13725,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="93"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -13565,10 +14303,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -13595,7 +14333,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -13628,7 +14366,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23">
         <v>25</v>
       </c>
@@ -13660,7 +14398,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24">
         <v>26</v>
       </c>
@@ -13691,7 +14429,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25">
         <v>27</v>
       </c>
@@ -13722,7 +14460,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="92"/>
       <c r="M26">
         <v>28</v>
       </c>
@@ -13753,7 +14491,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27">
         <v>1</v>
       </c>
@@ -13784,7 +14522,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="93"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -14309,10 +15047,10 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="17" t="s">
         <v>9</v>
       </c>
@@ -14339,7 +15077,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -14372,7 +15110,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="L23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23">
         <v>4</v>
       </c>
@@ -14404,7 +15142,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="L24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24">
         <v>5</v>
       </c>
@@ -14435,7 +15173,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="L25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25">
         <v>6</v>
       </c>
@@ -14466,7 +15204,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="92"/>
       <c r="M26">
         <v>7</v>
       </c>
@@ -14497,7 +15235,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="91"/>
+      <c r="L27" s="92"/>
       <c r="M27">
         <v>8</v>
       </c>
@@ -14528,7 +15266,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
-      <c r="L28" s="92"/>
+      <c r="L28" s="93"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
@@ -15048,10 +15786,10 @@
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="5"/>
-      <c r="L21" s="93" t="s">
+      <c r="L21" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="93"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="70" t="s">
         <v>9</v>
       </c>
@@ -15074,7 +15812,7 @@
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="5"/>
-      <c r="L22" s="94" t="s">
+      <c r="L22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="M22">
@@ -15103,7 +15841,7 @@
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="5"/>
-      <c r="L23" s="95"/>
+      <c r="L23" s="96"/>
       <c r="M23">
         <v>11</v>
       </c>
@@ -15131,7 +15869,7 @@
       <c r="C24" s="47"/>
       <c r="D24" s="5"/>
       <c r="F24" s="46"/>
-      <c r="L24" s="95"/>
+      <c r="L24" s="96"/>
       <c r="M24">
         <v>12</v>
       </c>
@@ -15158,7 +15896,7 @@
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="5"/>
-      <c r="L25" s="95"/>
+      <c r="L25" s="96"/>
       <c r="M25">
         <v>13</v>
       </c>
@@ -15185,7 +15923,7 @@
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="5"/>
-      <c r="L26" s="95"/>
+      <c r="L26" s="96"/>
       <c r="M26">
         <v>14</v>
       </c>
@@ -15212,7 +15950,7 @@
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="5"/>
-      <c r="L27" s="95"/>
+      <c r="L27" s="96"/>
       <c r="M27">
         <v>15</v>
       </c>
@@ -15239,7 +15977,7 @@
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="5"/>
-      <c r="L28" s="96"/>
+      <c r="L28" s="97"/>
       <c r="M28" t="s">
         <v>20</v>
       </c>
